--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Fgf13-Scn5a.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Fgf13-Scn5a.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.1139166666666667</v>
+        <v>0.092277</v>
       </c>
       <c r="H2">
-        <v>0.34175</v>
+        <v>0.276831</v>
       </c>
       <c r="I2">
-        <v>0.04552287366220362</v>
+        <v>0.03444274323645406</v>
       </c>
       <c r="J2">
-        <v>0.04552287366220363</v>
+        <v>0.03444274323645406</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.48641</v>
+        <v>0.04661299999999999</v>
       </c>
       <c r="N2">
-        <v>1.45923</v>
+        <v>0.139839</v>
       </c>
       <c r="O2">
-        <v>0.1393325029444749</v>
+        <v>0.0286392647455175</v>
       </c>
       <c r="P2">
-        <v>0.1393325029444749</v>
+        <v>0.0286392647455175</v>
       </c>
       <c r="Q2">
-        <v>0.05541020583333334</v>
+        <v>0.004301307801</v>
       </c>
       <c r="R2">
-        <v>0.4986918525</v>
+        <v>0.038711770209</v>
       </c>
       <c r="S2">
-        <v>0.006342815928579945</v>
+        <v>0.0009864148421106899</v>
       </c>
       <c r="T2">
-        <v>0.006342815928579945</v>
+        <v>0.0009864148421106899</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.1139166666666667</v>
+        <v>0.092277</v>
       </c>
       <c r="H3">
-        <v>0.34175</v>
+        <v>0.276831</v>
       </c>
       <c r="I3">
-        <v>0.04552287366220362</v>
+        <v>0.03444274323645406</v>
       </c>
       <c r="J3">
-        <v>0.04552287366220363</v>
+        <v>0.03444274323645406</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -614,28 +614,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>3.004591666666666</v>
+        <v>1.580977666666667</v>
       </c>
       <c r="N3">
-        <v>9.013774999999999</v>
+        <v>4.742933000000001</v>
       </c>
       <c r="O3">
-        <v>0.860667497055525</v>
+        <v>0.9713607352544825</v>
       </c>
       <c r="P3">
-        <v>0.8606674970555251</v>
+        <v>0.9713607352544824</v>
       </c>
       <c r="Q3">
-        <v>0.3422730673611111</v>
+        <v>0.145887876147</v>
       </c>
       <c r="R3">
-        <v>3.08045760625</v>
+        <v>1.312990885323</v>
       </c>
       <c r="S3">
-        <v>0.03918005773362367</v>
+        <v>0.03345632839434336</v>
       </c>
       <c r="T3">
-        <v>0.03918005773362369</v>
+        <v>0.03345632839434336</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,46 +658,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.03382</v>
+        <v>2.276331666666667</v>
       </c>
       <c r="H4">
-        <v>6.101459999999999</v>
+        <v>6.828995</v>
       </c>
       <c r="I4">
-        <v>0.8127461382150372</v>
+        <v>0.8496495022162568</v>
       </c>
       <c r="J4">
-        <v>0.8127461382150372</v>
+        <v>0.8496495022162568</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.48641</v>
+        <v>0.04661299999999999</v>
       </c>
       <c r="N4">
-        <v>1.45923</v>
+        <v>0.139839</v>
       </c>
       <c r="O4">
-        <v>0.1393325029444749</v>
+        <v>0.0286392647455175</v>
       </c>
       <c r="P4">
-        <v>0.1393325029444749</v>
+        <v>0.0286392647455175</v>
       </c>
       <c r="Q4">
-        <v>0.9892703862</v>
+        <v>0.1061066479783333</v>
       </c>
       <c r="R4">
-        <v>8.9034334758</v>
+        <v>0.9549598318049999</v>
       </c>
       <c r="S4">
-        <v>0.1132419536959573</v>
+        <v>0.02433333703486854</v>
       </c>
       <c r="T4">
-        <v>0.1132419536959573</v>
+        <v>0.02433333703486853</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,16 +720,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.03382</v>
+        <v>2.276331666666667</v>
       </c>
       <c r="H5">
-        <v>6.101459999999999</v>
+        <v>6.828995</v>
       </c>
       <c r="I5">
-        <v>0.8127461382150372</v>
+        <v>0.8496495022162568</v>
       </c>
       <c r="J5">
-        <v>0.8127461382150372</v>
+        <v>0.8496495022162568</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.004591666666666</v>
+        <v>1.580977666666667</v>
       </c>
       <c r="N5">
-        <v>9.013774999999999</v>
+        <v>4.742933000000001</v>
       </c>
       <c r="O5">
-        <v>0.860667497055525</v>
+        <v>0.9713607352544825</v>
       </c>
       <c r="P5">
-        <v>0.8606674970555251</v>
+        <v>0.9713607352544824</v>
       </c>
       <c r="Q5">
-        <v>6.110798623499999</v>
+        <v>3.598829526926111</v>
       </c>
       <c r="R5">
-        <v>54.99718761149999</v>
+        <v>32.38946574233501</v>
       </c>
       <c r="S5">
-        <v>0.6995041845190798</v>
+        <v>0.8253161651813883</v>
       </c>
       <c r="T5">
-        <v>0.6995041845190799</v>
+        <v>0.8253161651813882</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.3546683333333333</v>
+        <v>0.3105333333333333</v>
       </c>
       <c r="H6">
-        <v>1.064005</v>
+        <v>0.9316</v>
       </c>
       <c r="I6">
-        <v>0.1417309881227592</v>
+        <v>0.1159077545472891</v>
       </c>
       <c r="J6">
-        <v>0.1417309881227592</v>
+        <v>0.1159077545472891</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.48641</v>
+        <v>0.04661299999999999</v>
       </c>
       <c r="N6">
-        <v>1.45923</v>
+        <v>0.139839</v>
       </c>
       <c r="O6">
-        <v>0.1393325029444749</v>
+        <v>0.0286392647455175</v>
       </c>
       <c r="P6">
-        <v>0.1393325029444749</v>
+        <v>0.0286392647455175</v>
       </c>
       <c r="Q6">
-        <v>0.1725142240166667</v>
+        <v>0.01447489026666667</v>
       </c>
       <c r="R6">
-        <v>1.55262801615</v>
+        <v>0.1302740124</v>
       </c>
       <c r="S6">
-        <v>0.01974773331993768</v>
+        <v>0.003319512868538273</v>
       </c>
       <c r="T6">
-        <v>0.01974773331993768</v>
+        <v>0.003319512868538273</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,22 +838,22 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.3546683333333333</v>
+        <v>0.3105333333333333</v>
       </c>
       <c r="H7">
-        <v>1.064005</v>
+        <v>0.9316</v>
       </c>
       <c r="I7">
-        <v>0.1417309881227592</v>
+        <v>0.1159077545472891</v>
       </c>
       <c r="J7">
-        <v>0.1417309881227592</v>
+        <v>0.1159077545472891</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.004591666666666</v>
+        <v>1.580977666666667</v>
       </c>
       <c r="N7">
-        <v>9.013774999999999</v>
+        <v>4.742933000000001</v>
       </c>
       <c r="O7">
-        <v>0.860667497055525</v>
+        <v>0.9713607352544825</v>
       </c>
       <c r="P7">
-        <v>0.8606674970555251</v>
+        <v>0.9713607352544824</v>
       </c>
       <c r="Q7">
-        <v>1.065633518763889</v>
+        <v>0.4909462647555556</v>
       </c>
       <c r="R7">
-        <v>9.590701668874997</v>
+        <v>4.418516382800001</v>
       </c>
       <c r="S7">
-        <v>0.1219832548028215</v>
+        <v>0.1125882416787509</v>
       </c>
       <c r="T7">
-        <v>0.1219832548028215</v>
+        <v>0.1125882416787509</v>
       </c>
     </row>
   </sheetData>
